--- a/Mifos Automation Excels/Client/2659-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-AccCL1stFEB-OVERDUE-FEE-FLAT-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2659-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-AccCL1stFEB-OVERDUE-FEE-FLAT-Newcreateloan1.xlsx
@@ -920,7 +920,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +965,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>747.98</v>
+        <v>297.55</v>
       </c>
       <c r="B3" s="14">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="14">
-        <v>747.98</v>
+        <v>297.55</v>
       </c>
       <c r="F3" s="14">
         <v>297.55</v>
